--- a/global_data/day_data/605507.xlsx
+++ b/global_data/day_data/605507.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I906"/>
+  <dimension ref="A1:I908"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26682,6 +26684,64 @@
         <v>0.006839072815149231</v>
       </c>
     </row>
+    <row r="907" spans="1:9">
+      <c r="A907" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B907">
+        <v>19.01</v>
+      </c>
+      <c r="C907">
+        <v>19.21</v>
+      </c>
+      <c r="D907">
+        <v>19.01</v>
+      </c>
+      <c r="E907">
+        <v>19.06</v>
+      </c>
+      <c r="F907">
+        <v>2140756</v>
+      </c>
+      <c r="G907">
+        <v>40858394</v>
+      </c>
+      <c r="H907">
+        <v>301722186</v>
+      </c>
+      <c r="I907">
+        <v>0.007095122928746114</v>
+      </c>
+    </row>
+    <row r="908" spans="1:9">
+      <c r="A908" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B908">
+        <v>19.13</v>
+      </c>
+      <c r="C908">
+        <v>19.35</v>
+      </c>
+      <c r="D908">
+        <v>19.13</v>
+      </c>
+      <c r="E908">
+        <v>19.17</v>
+      </c>
+      <c r="F908">
+        <v>2418227</v>
+      </c>
+      <c r="G908">
+        <v>46527420</v>
+      </c>
+      <c r="H908">
+        <v>301722186</v>
+      </c>
+      <c r="I908">
+        <v>0.008014747049459599</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
